--- a/DOC/機能一覧.xlsx
+++ b/DOC/機能一覧.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\Documents\RiskMap\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C91EF6C6-3C4B-4369-A6C5-1E6BB941A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE13A57-4C41-4AE1-B48F-5BD3A80CFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59CC4183-50B7-4B27-9EFB-344905038984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59CC4183-50B7-4B27-9EFB-344905038984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>大分類</t>
   </si>
@@ -53,9 +42,6 @@
     <t>地図機能</t>
   </si>
   <si>
-    <t>危険スポット投稿</t>
-  </si>
-  <si>
     <t>地図上にピンを立てて、危険・不快な体験を共有できる</t>
   </si>
   <si>
@@ -72,9 +58,6 @@
   </si>
   <si>
     <t>危険レベル表示</t>
-  </si>
-  <si>
-    <t>ピンの色やアイコンで危険度を表現</t>
   </si>
   <si>
     <t>視覚的にわかりやすい</t>
@@ -180,6 +163,66 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンの色やアイコンで危険度を表現</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>危険スポット投稿</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パス再設定</t>
+    <rPh sb="2" eb="5">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地図閲覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピン表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピン投稿機能</t>
+    <rPh sb="2" eb="6">
+      <t>トウコウキノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -222,12 +265,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,11 +306,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -305,15 +366,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -328,13 +380,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FBA2559-C842-4581-B4D4-77380BF6B4B0}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FBA2559-C842-4581-B4D4-77380BF6B4B0}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D12" xr:uid="{6FBA2559-C842-4581-B4D4-77380BF6B4B0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{693B8D8B-8F1C-45FB-A7DB-CD06D42B3A7D}" name="大分類" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E4E7BE2B-8A45-4AD6-B31F-9D14677CE660}" name="機能名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1BE6D2AF-2374-4881-BD31-83CAC92B136C}" name="内容" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{50A807D0-3505-4807-9AF8-AC08AD7B0D6B}" name="備考" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{693B8D8B-8F1C-45FB-A7DB-CD06D42B3A7D}" name="大分類" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E4E7BE2B-8A45-4AD6-B31F-9D14677CE660}" name="機能名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1BE6D2AF-2374-4881-BD31-83CAC92B136C}" name="内容" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{50A807D0-3505-4807-9AF8-AC08AD7B0D6B}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -657,9 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FE299A-235A-4C09-9D6E-BC2154D2DFCE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -685,14 +739,14 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -700,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -714,125 +768,165 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/機能一覧.xlsx
+++ b/DOC/機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\Documents\RiskMap\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\soruce\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE13A57-4C41-4AE1-B48F-5BD3A80CFCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E09F53-856B-4F90-86AD-3B8FD96AEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59CC4183-50B7-4B27-9EFB-344905038984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59CC4183-50B7-4B27-9EFB-344905038984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>大分類</t>
   </si>
@@ -48,9 +59,6 @@
     <t>卑猥な声掛け、つきまといなど</t>
   </si>
   <si>
-    <t>投稿閲覧</t>
-  </si>
-  <si>
     <t>他ユーザーが投稿したスポットを確認できる</t>
   </si>
   <si>
@@ -82,9 +90,6 @@
   </si>
   <si>
     <t>通知機能</t>
-  </si>
-  <si>
-    <t>エリア通知</t>
   </si>
   <si>
     <t>自分の登録エリアで新規投稿があれば通知</t>
@@ -224,6 +229,18 @@
     <rPh sb="2" eb="6">
       <t>トウコウキノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿閲覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリア通知</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -274,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FE299A-235A-4C09-9D6E-BC2154D2DFCE}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -740,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -754,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -768,125 +783,125 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -900,33 +915,33 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
